--- a/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
+++ b/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE083C9-B964-471B-8DF2-9C60DC0BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="262">
   <si>
     <t>PERIOD</t>
   </si>
@@ -817,12 +816,15 @@
   </si>
   <si>
     <t>6/26,27,30/2023</t>
+  </si>
+  <si>
+    <t>9/17-19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1494,7 +1496,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1511,25 +1513,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1836,34 +1838,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A395" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="A398" sqref="A398"/>
+      <selection pane="bottomLeft" activeCell="K400" sqref="K400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +1886,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1904,7 +1906,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1926,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1932,7 +1934,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1945,7 +1947,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1962,7 +1964,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2006,7 +2008,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>99.646000000000043</v>
+        <v>103.39600000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2016,12 +2018,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>190.79</v>
+        <v>194.54</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>73</v>
       </c>
@@ -2045,7 +2047,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35674</v>
       </c>
@@ -2065,7 +2067,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35704</v>
       </c>
@@ -2085,7 +2087,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35735</v>
       </c>
@@ -2105,7 +2107,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>35765</v>
       </c>
@@ -2125,7 +2127,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>75</v>
       </c>
@@ -2143,7 +2145,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35796</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>35827</v>
       </c>
@@ -2183,7 +2185,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>35855</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35886</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>35916</v>
       </c>
@@ -2243,7 +2245,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>35947</v>
       </c>
@@ -2263,7 +2265,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35977</v>
       </c>
@@ -2283,7 +2285,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>36008</v>
       </c>
@@ -2303,7 +2305,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36039</v>
       </c>
@@ -2323,7 +2325,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36069</v>
       </c>
@@ -2343,7 +2345,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36100</v>
       </c>
@@ -2363,7 +2365,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36130</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>76</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36161</v>
       </c>
@@ -2425,7 +2427,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>36192</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36220</v>
       </c>
@@ -2465,7 +2467,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36251</v>
       </c>
@@ -2489,7 +2491,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36281</v>
       </c>
@@ -2509,7 +2511,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36312</v>
       </c>
@@ -2533,7 +2535,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36342</v>
       </c>
@@ -2557,7 +2559,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36373</v>
       </c>
@@ -2581,7 +2583,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36404</v>
       </c>
@@ -2601,7 +2603,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36434</v>
       </c>
@@ -2621,7 +2623,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36465</v>
       </c>
@@ -2641,7 +2643,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36495</v>
       </c>
@@ -2665,7 +2667,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>77</v>
       </c>
@@ -2683,7 +2685,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36526</v>
       </c>
@@ -2703,7 +2705,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36557</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>36586</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36617</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36647</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>102</v>
@@ -2819,7 +2821,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36678</v>
       </c>
@@ -2843,7 +2845,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36708</v>
       </c>
@@ -2863,7 +2865,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>36739</v>
       </c>
@@ -2887,7 +2889,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>36770</v>
       </c>
@@ -2907,7 +2909,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>36800</v>
       </c>
@@ -2931,7 +2933,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>36831</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>97</v>
@@ -2977,7 +2979,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>36861</v>
       </c>
@@ -3001,7 +3003,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>78</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>36892</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>36920</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>109</v>
@@ -3065,7 +3067,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="48"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>36923</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>36951</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36982</v>
       </c>
@@ -3139,7 +3141,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37012</v>
       </c>
@@ -3163,7 +3165,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37043</v>
       </c>
@@ -3183,7 +3185,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37073</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>114</v>
@@ -3229,7 +3231,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37104</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37135</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37165</v>
       </c>
@@ -3293,7 +3295,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37196</v>
       </c>
@@ -3313,7 +3315,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37226</v>
       </c>
@@ -3339,7 +3341,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>79</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37257</v>
       </c>
@@ -3381,7 +3383,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37288</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37316</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37347</v>
       </c>
@@ -3449,7 +3451,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37377</v>
       </c>
@@ -3469,7 +3471,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>37408</v>
       </c>
@@ -3489,7 +3491,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37438</v>
       </c>
@@ -3509,7 +3511,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37469</v>
       </c>
@@ -3529,7 +3531,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>37500</v>
       </c>
@@ -3549,7 +3551,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37530</v>
       </c>
@@ -3569,7 +3571,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37561</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3617,7 +3619,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37591</v>
       </c>
@@ -3637,7 +3639,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>80</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>37622</v>
       </c>
@@ -3675,7 +3677,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37653</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37681</v>
       </c>
@@ -3715,7 +3717,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>37712</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37742</v>
       </c>
@@ -3755,7 +3757,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>37773</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>37803</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>37834</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>37857</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>37865</v>
       </c>
@@ -3841,7 +3843,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>37895</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>37926</v>
       </c>
@@ -3891,7 +3893,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>37956</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>81</v>
       </c>
@@ -3933,7 +3935,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>37987</v>
       </c>
@@ -3953,7 +3955,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>38018</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38047</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>38078</v>
       </c>
@@ -4023,7 +4025,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38108</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38139</v>
       </c>
@@ -4067,7 +4069,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>38169</v>
       </c>
@@ -4087,7 +4089,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>38200</v>
       </c>
@@ -4107,7 +4109,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38231</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>38261</v>
       </c>
@@ -4147,7 +4149,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38292</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38322</v>
       </c>
@@ -4193,7 +4195,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
         <v>82</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>38353</v>
       </c>
@@ -4235,7 +4237,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>38384</v>
       </c>
@@ -4259,7 +4261,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38412</v>
       </c>
@@ -4281,7 +4283,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>127</v>
@@ -4301,7 +4303,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38443</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>129</v>
@@ -4345,7 +4347,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38473</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38504</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38534</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>38565</v>
       </c>
@@ -4435,7 +4437,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>38596</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38626</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>38657</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38687</v>
       </c>
@@ -4519,7 +4521,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>83</v>
       </c>
@@ -4537,7 +4539,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>38718</v>
       </c>
@@ -4557,7 +4559,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>38749</v>
       </c>
@@ -4581,7 +4583,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>38777</v>
       </c>
@@ -4605,7 +4607,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38808</v>
       </c>
@@ -4625,7 +4627,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>38838</v>
       </c>
@@ -4649,7 +4651,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>38869</v>
       </c>
@@ -4673,7 +4675,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38899</v>
       </c>
@@ -4697,7 +4699,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>38930</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>38961</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>38991</v>
       </c>
@@ -4769,7 +4771,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>39022</v>
       </c>
@@ -4793,7 +4795,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>39052</v>
       </c>
@@ -4817,7 +4819,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>146</v>
@@ -4837,7 +4839,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>147</v>
@@ -4857,7 +4859,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>84</v>
       </c>
@@ -4875,7 +4877,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>39083</v>
       </c>
@@ -4895,7 +4897,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>39114</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>151</v>
@@ -4943,7 +4945,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>39142</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>139</v>
@@ -4989,7 +4991,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="50"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>141</v>
@@ -5011,7 +5013,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39173</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>39203</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>39234</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>49</v>
@@ -5109,7 +5111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>39264</v>
       </c>
@@ -5129,7 +5131,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>39295</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>159</v>
@@ -5175,7 +5177,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>39326</v>
       </c>
@@ -5201,7 +5203,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>39356</v>
       </c>
@@ -5225,7 +5227,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>39387</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>133</v>
@@ -5273,7 +5275,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>102</v>
@@ -5295,7 +5297,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39417</v>
       </c>
@@ -5319,7 +5321,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>85</v>
       </c>
@@ -5337,7 +5339,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>39448</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>168</v>
@@ -5383,7 +5385,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>39479</v>
       </c>
@@ -5407,7 +5409,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>39508</v>
       </c>
@@ -5431,7 +5433,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>39539</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>55</v>
@@ -5477,7 +5479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>172</v>
@@ -5497,7 +5499,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>39569</v>
       </c>
@@ -5521,7 +5523,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>39600</v>
       </c>
@@ -5545,7 +5547,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>39630</v>
       </c>
@@ -5569,7 +5571,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39661</v>
       </c>
@@ -5593,7 +5595,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>39692</v>
       </c>
@@ -5617,7 +5619,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>39722</v>
       </c>
@@ -5643,7 +5645,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39753</v>
       </c>
@@ -5669,7 +5671,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>39783</v>
       </c>
@@ -5689,7 +5691,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="47" t="s">
         <v>86</v>
       </c>
@@ -5707,7 +5709,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>39814</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>57</v>
@@ -5755,7 +5757,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>183</v>
@@ -5775,7 +5777,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>39845</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>185</v>
@@ -5821,7 +5823,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>39873</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>187</v>
@@ -5867,7 +5869,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39904</v>
       </c>
@@ -5893,7 +5895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>189</v>
@@ -5913,7 +5915,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>39934</v>
       </c>
@@ -5937,7 +5939,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39965</v>
       </c>
@@ -5961,7 +5963,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39995</v>
       </c>
@@ -5985,7 +5987,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>40026</v>
       </c>
@@ -6009,7 +6011,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>40057</v>
       </c>
@@ -6029,7 +6031,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>40087</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>139</v>
@@ -6075,7 +6077,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>196</v>
@@ -6095,7 +6097,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>40118</v>
       </c>
@@ -6115,7 +6117,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>40148</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>108</v>
@@ -6161,7 +6163,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
         <v>87</v>
       </c>
@@ -6179,7 +6181,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>40179</v>
       </c>
@@ -6203,7 +6205,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>40210</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>40238</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>201</v>
@@ -6271,7 +6273,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>40269</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>203</v>
@@ -6315,7 +6317,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>40299</v>
       </c>
@@ -6339,7 +6341,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>40330</v>
       </c>
@@ -6363,7 +6365,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>40360</v>
       </c>
@@ -6387,7 +6389,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>40391</v>
       </c>
@@ -6411,7 +6413,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>40422</v>
       </c>
@@ -6435,7 +6437,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>40452</v>
       </c>
@@ -6459,7 +6461,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>40483</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>105</v>
@@ -6505,7 +6507,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>40513</v>
       </c>
@@ -6529,7 +6531,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>55</v>
@@ -6549,7 +6551,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>88</v>
       </c>
@@ -6567,7 +6569,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>40544</v>
       </c>
@@ -6591,7 +6593,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>40575</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>40603</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>214</v>
@@ -6661,7 +6663,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>40634</v>
       </c>
@@ -6685,7 +6687,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>40664</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>217</v>
@@ -6731,7 +6733,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>40695</v>
       </c>
@@ -6751,7 +6753,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>40725</v>
       </c>
@@ -6771,7 +6773,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>40756</v>
       </c>
@@ -6791,7 +6793,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>40787</v>
       </c>
@@ -6811,7 +6813,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>40817</v>
       </c>
@@ -6831,7 +6833,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>40848</v>
       </c>
@@ -6855,7 +6857,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>40878</v>
       </c>
@@ -6879,7 +6881,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>219</v>
@@ -6899,7 +6901,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>89</v>
       </c>
@@ -6917,7 +6919,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>40909</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>102</v>
@@ -6965,7 +6967,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>40940</v>
       </c>
@@ -6985,7 +6987,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>40969</v>
       </c>
@@ -7005,7 +7007,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>41000</v>
       </c>
@@ -7025,7 +7027,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>41030</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>41061</v>
       </c>
@@ -7075,7 +7077,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>41091</v>
       </c>
@@ -7095,7 +7097,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>41122</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>41153</v>
       </c>
@@ -7141,7 +7143,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>41183</v>
       </c>
@@ -7161,7 +7163,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>41214</v>
       </c>
@@ -7181,7 +7183,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>41244</v>
       </c>
@@ -7201,7 +7203,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>90</v>
       </c>
@@ -7219,7 +7221,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>41275</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>179</v>
@@ -7267,7 +7269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>41306</v>
       </c>
@@ -7287,7 +7289,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>41334</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>41365</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>41395</v>
       </c>
@@ -7359,7 +7361,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>41426</v>
       </c>
@@ -7379,7 +7381,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>41456</v>
       </c>
@@ -7399,7 +7401,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>41487</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>187</v>
@@ -7445,7 +7447,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>41518</v>
       </c>
@@ -7469,7 +7471,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>41548</v>
       </c>
@@ -7493,7 +7495,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>41579</v>
       </c>
@@ -7517,7 +7519,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>41609</v>
       </c>
@@ -7541,7 +7543,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>102</v>
@@ -7563,7 +7565,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="47" t="s">
         <v>91</v>
       </c>
@@ -7581,7 +7583,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>41640</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>238</v>
@@ -7627,7 +7629,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>41671</v>
       </c>
@@ -7651,7 +7653,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>41699</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>45</v>
@@ -7697,7 +7699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>240</v>
@@ -7717,7 +7719,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>41730</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>41760</v>
       </c>
@@ -7767,7 +7769,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>102</v>
@@ -7789,7 +7791,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>41791</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>57</v>
@@ -7837,7 +7839,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>41821</v>
       </c>
@@ -7861,7 +7863,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>41852</v>
       </c>
@@ -7881,7 +7883,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>41883</v>
       </c>
@@ -7901,7 +7903,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>41913</v>
       </c>
@@ -7925,7 +7927,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>65</v>
@@ -7947,7 +7949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>41944</v>
       </c>
@@ -7971,7 +7973,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>41974</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>251</v>
@@ -8017,7 +8019,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="47" t="s">
         <v>92</v>
       </c>
@@ -8035,7 +8037,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>42005</v>
       </c>
@@ -8055,7 +8057,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <v>42036</v>
       </c>
@@ -8075,7 +8077,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <v>42064</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>42095</v>
       </c>
@@ -8121,7 +8123,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>42125</v>
       </c>
@@ -8141,7 +8143,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>42156</v>
       </c>
@@ -8161,7 +8163,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>42186</v>
       </c>
@@ -8181,7 +8183,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>42217</v>
       </c>
@@ -8201,7 +8203,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>42248</v>
       </c>
@@ -8221,7 +8223,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>42278</v>
       </c>
@@ -8241,7 +8243,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>42309</v>
       </c>
@@ -8261,7 +8263,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>42339</v>
       </c>
@@ -8285,7 +8287,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="47" t="s">
         <v>93</v>
       </c>
@@ -8303,7 +8305,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>42370</v>
       </c>
@@ -8323,7 +8325,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>42401</v>
       </c>
@@ -8343,7 +8345,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>42430</v>
       </c>
@@ -8363,7 +8365,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>42461</v>
       </c>
@@ -8383,7 +8385,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>42491</v>
       </c>
@@ -8403,7 +8405,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>42522</v>
       </c>
@@ -8423,7 +8425,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>42552</v>
       </c>
@@ -8443,7 +8445,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>42583</v>
       </c>
@@ -8469,7 +8471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>42614</v>
       </c>
@@ -8489,7 +8491,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>42644</v>
       </c>
@@ -8509,7 +8511,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23">
         <v>42675</v>
       </c>
@@ -8529,7 +8531,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>42705</v>
       </c>
@@ -8549,7 +8551,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="47" t="s">
         <v>94</v>
       </c>
@@ -8567,7 +8569,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>42736</v>
       </c>
@@ -8587,7 +8589,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>42767</v>
       </c>
@@ -8607,7 +8609,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>42795</v>
       </c>
@@ -8633,7 +8635,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>42826</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>42856</v>
       </c>
@@ -8677,7 +8679,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>42887</v>
       </c>
@@ -8697,7 +8699,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>42917</v>
       </c>
@@ -8717,7 +8719,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>42948</v>
       </c>
@@ -8743,7 +8745,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>42979</v>
       </c>
@@ -8763,7 +8765,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>43009</v>
       </c>
@@ -8783,7 +8785,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>43040</v>
       </c>
@@ -8803,7 +8805,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>43070</v>
       </c>
@@ -8823,7 +8825,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="47" t="s">
         <v>44</v>
       </c>
@@ -8841,7 +8843,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43101</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43132</v>
       </c>
@@ -8885,7 +8887,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43160</v>
       </c>
@@ -8905,7 +8907,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43191</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8950,7 +8952,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>47</v>
@@ -8969,7 +8971,7 @@
         <v>43183</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -8988,7 +8990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>49</v>
@@ -9005,7 +9007,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43221</v>
       </c>
@@ -9025,7 +9027,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43252</v>
       </c>
@@ -9045,7 +9047,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43282</v>
       </c>
@@ -9065,7 +9067,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43313</v>
       </c>
@@ -9085,7 +9087,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43344</v>
       </c>
@@ -9105,7 +9107,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43374</v>
       </c>
@@ -9125,7 +9127,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43405</v>
       </c>
@@ -9145,7 +9147,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43435</v>
       </c>
@@ -9165,7 +9167,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="47" t="s">
         <v>54</v>
       </c>
@@ -9183,7 +9185,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43466</v>
       </c>
@@ -9203,7 +9205,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43497</v>
       </c>
@@ -9223,7 +9225,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43525</v>
       </c>
@@ -9243,7 +9245,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43556</v>
       </c>
@@ -9263,7 +9265,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43586</v>
       </c>
@@ -9283,7 +9285,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43617</v>
       </c>
@@ -9303,7 +9305,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>43647</v>
       </c>
@@ -9323,7 +9325,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43678</v>
       </c>
@@ -9343,7 +9345,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43709</v>
       </c>
@@ -9363,7 +9365,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43739</v>
       </c>
@@ -9383,7 +9385,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43770</v>
       </c>
@@ -9403,7 +9405,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43800</v>
       </c>
@@ -9427,7 +9429,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="47" t="s">
         <v>56</v>
       </c>
@@ -9445,7 +9447,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43831</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43862</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43891</v>
       </c>
@@ -9515,7 +9517,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43922</v>
       </c>
@@ -9535,7 +9537,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43952</v>
       </c>
@@ -9555,7 +9557,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43983</v>
       </c>
@@ -9575,7 +9577,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44013</v>
       </c>
@@ -9595,7 +9597,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44044</v>
       </c>
@@ -9615,7 +9617,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44075</v>
       </c>
@@ -9635,7 +9637,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44105</v>
       </c>
@@ -9655,7 +9657,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44136</v>
       </c>
@@ -9675,7 +9677,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44166</v>
       </c>
@@ -9699,7 +9701,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="47" t="s">
         <v>61</v>
       </c>
@@ -9717,7 +9719,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44197</v>
       </c>
@@ -9737,7 +9739,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44228</v>
       </c>
@@ -9757,7 +9759,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44256</v>
       </c>
@@ -9777,7 +9779,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44287</v>
       </c>
@@ -9797,7 +9799,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44317</v>
       </c>
@@ -9817,7 +9819,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44348</v>
       </c>
@@ -9837,7 +9839,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44378</v>
       </c>
@@ -9857,7 +9859,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44409</v>
       </c>
@@ -9877,7 +9879,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44440</v>
       </c>
@@ -9897,7 +9899,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44470</v>
       </c>
@@ -9917,7 +9919,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44501</v>
       </c>
@@ -9937,7 +9939,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44531</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="47" t="s">
         <v>64</v>
       </c>
@@ -9981,7 +9983,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44562</v>
       </c>
@@ -10001,7 +10003,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44593</v>
       </c>
@@ -10021,7 +10023,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44621</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>47</v>
@@ -10066,7 +10068,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>65</v>
@@ -10085,7 +10087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44652</v>
       </c>
@@ -10105,7 +10107,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44682</v>
       </c>
@@ -10125,7 +10127,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44713</v>
       </c>
@@ -10145,7 +10147,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44743</v>
       </c>
@@ -10165,7 +10167,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44774</v>
       </c>
@@ -10185,7 +10187,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44805</v>
       </c>
@@ -10205,7 +10207,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44835</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44866</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44896</v>
       </c>
@@ -10277,7 +10279,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="47" t="s">
         <v>71</v>
       </c>
@@ -10295,7 +10297,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44927</v>
       </c>
@@ -10315,7 +10317,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44958</v>
       </c>
@@ -10335,7 +10337,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44986</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45017</v>
       </c>
@@ -10381,7 +10383,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45047</v>
       </c>
@@ -10407,22 +10409,24 @@
         <v>258</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45078</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39">
         <v>3</v>
       </c>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
@@ -10431,41 +10435,53 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A398" s="40"/>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="40">
+        <v>45108</v>
+      </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A399" s="40"/>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="40">
+        <v>45139</v>
+      </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400" s="40"/>
-      <c r="B400" s="20"/>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B400" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
@@ -10477,9 +10493,11 @@
       <c r="H400" s="39"/>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K400" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10495,7 +10513,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10511,7 +10529,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10527,7 +10545,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10543,7 +10561,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10574,10 +10592,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10600,28 +10618,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -10634,7 +10652,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10663,7 +10681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>27.542000000000002</v>
       </c>
@@ -10693,17 +10711,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10724,7 +10742,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10751,7 +10769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10777,7 +10795,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10803,7 +10821,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10829,7 +10847,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10855,7 +10873,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10881,7 +10899,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10933,7 +10951,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10973,7 +10991,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10993,7 +11011,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11014,7 +11032,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11035,7 +11053,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11056,7 +11074,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11077,7 +11095,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11098,7 +11116,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11119,7 +11137,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11140,7 +11158,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11161,7 +11179,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11182,7 +11200,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11203,7 +11221,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11224,7 +11242,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11245,7 +11263,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11266,7 +11284,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11287,7 +11305,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11308,7 +11326,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11329,7 +11347,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11350,7 +11368,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11371,7 +11389,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11392,7 +11410,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11422,7 +11440,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11431,7 +11449,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11440,7 +11458,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11449,7 +11467,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11458,7 +11476,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11467,7 +11485,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11476,7 +11494,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11485,7 +11503,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11494,7 +11512,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11503,7 +11521,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11512,7 +11530,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11521,7 +11539,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11530,7 +11548,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11539,7 +11557,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11548,7 +11566,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11557,7 +11575,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11566,7 +11584,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11575,7 +11593,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11584,7 +11602,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11593,7 +11611,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11602,7 +11620,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11611,7 +11629,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11620,7 +11638,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11629,7 +11647,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11638,7 +11656,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11647,7 +11665,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11656,7 +11674,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11665,7 +11683,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11674,7 +11692,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
+++ b/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="265">
   <si>
     <t>PERIOD</t>
   </si>
@@ -822,6 +822,12 @@
   </si>
   <si>
     <t>11/6,7/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/16,17,19/2024</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1522,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K418" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1845,12 +1851,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K405"/>
+  <dimension ref="A2:K418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A386" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A401" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K402" sqref="K402"/>
+      <selection pane="bottomLeft" activeCell="I407" sqref="I407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2017,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>105.89600000000004</v>
+        <v>108.39600000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2021,7 +2027,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.04</v>
+        <v>197.54</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10529,13 +10535,15 @@
       <c r="B402" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C402" s="13"/>
+      <c r="C402" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G402" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H402" s="39">
         <v>2</v>
@@ -10551,13 +10559,15 @@
         <v>45291</v>
       </c>
       <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D403" s="39"/>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
@@ -10565,8 +10575,8 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40">
-        <v>45322</v>
+      <c r="A404" s="47" t="s">
+        <v>263</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10584,9 +10594,11 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B405" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
@@ -10598,7 +10610,243 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="39"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="39"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="20"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B407" s="20"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="39"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H407" s="39"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B408" s="20"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="39"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B409" s="20"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="39"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="20"/>
+      <c r="G409" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="39"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="20"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
+      <c r="E410" s="9"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H410" s="39"/>
+      <c r="I410" s="9"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="20"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B411" s="20"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="39"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="39"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="20"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B412" s="20"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="39"/>
+      <c r="E412" s="9"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H412" s="39"/>
+      <c r="I412" s="9"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="20"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B413" s="20"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="39"/>
+      <c r="E413" s="9"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="39"/>
+      <c r="I413" s="9"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="20"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="39"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H414" s="39"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="39"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="39"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="39"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="39"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H417" s="39"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="40">
+        <v>45716</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="39"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
